--- a/pics_to_discuss/bxyl_pics/bxyl-LM_arc_group_WRMSD.xlsx
+++ b/pics_to_discuss/bxyl_pics/bxyl-LM_arc_group_WRMSD.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\pics_to_discuss\bxyl_pics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justi\Desktop\Winter 2017\Research\codes\python\qm_utils\pucker_prog_data\pics_to_discuss\bxyl_pics\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11985" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bxyl-LM_arc_group_WRMSD" sheetId="1" r:id="rId1"/>
